--- a/Pórtico 0.xlsx
+++ b/Pórtico 0.xlsx
@@ -83,10 +83,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,10 +610,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="F12" s="1">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -631,10 +631,10 @@
         <v>0.5</v>
       </c>
       <c r="E13" s="1">
-        <v>50</v>
+        <v>-50</v>
       </c>
       <c r="F13" s="1">
-        <v>50</v>
+        <v>-50</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -652,10 +652,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F14" s="1">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="G14" s="2"/>
     </row>
